--- a/posts/Introduction/flashcards.xlsx
+++ b/posts/Introduction/flashcards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlmarquez/Desktop/PharmTech/PharmTech/posts/Introduction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9987710-F678-A643-9D5C-709A635B0C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79581724-C263-3A4A-BADB-CC54176954DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="880" windowWidth="31560" windowHeight="22500" xr2:uid="{6A0228DA-1CE0-414F-8705-72378780F3F5}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{6A0228DA-1CE0-414F-8705-72378780F3F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Question</t>
   </si>
@@ -53,7 +53,127 @@
     <t>Community Pharmacy</t>
   </si>
   <si>
-    <t xml:space="preserve">Dispense medications to general community. Examples: CVS, Walgreens </t>
+    <t>Dispense medications to general community. Examples: CVS, Walgreens, Pharmacy technicians enter, count, release medications to patients</t>
+  </si>
+  <si>
+    <t>bar code scanner (used to verify medications), robotic vial filler (can fill prescriptions for you), automated pill counters</t>
+  </si>
+  <si>
+    <t>Common equipment in Community Pharmacy</t>
+  </si>
+  <si>
+    <t>Institutional Pharmacy</t>
+  </si>
+  <si>
+    <t>Common equipment in Institutional Pharmacy</t>
+  </si>
+  <si>
+    <t>Dispense medications for use within the institution. Examples: small community hospitals, academic medical centers, outpatient facilities. Pharmacy techs do inventory management, sterile compounding</t>
+  </si>
+  <si>
+    <t>Laminar Flowhood (used for sterile compunding), Talyst machine (help store medications to take up less space), Kit check machine (help create ansthesia trays for anesthesia counts)</t>
+  </si>
+  <si>
+    <t>Compounding Pharmacies</t>
+  </si>
+  <si>
+    <t>create medications that aren't available through a manufacturer</t>
+  </si>
+  <si>
+    <t>Nuclear Pharmacies</t>
+  </si>
+  <si>
+    <t>create nuclear medications for imaging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pediatric Pharmacies </t>
+  </si>
+  <si>
+    <t>work specifically to pediatrics</t>
+  </si>
+  <si>
+    <t>Pharmacy Personel working in a Pharmacy</t>
+  </si>
+  <si>
+    <t>Pharmacist, Pharmacy Intern, Pharmacy Technician, Pharmacy Clerk</t>
+  </si>
+  <si>
+    <t>Verify and Dispense medications</t>
+  </si>
+  <si>
+    <t>Role od Pharmacist</t>
+  </si>
+  <si>
+    <t>Role of Pharmacy Intern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all tasks of a pharmacist </t>
+  </si>
+  <si>
+    <t>Role of Pharmacy Technician</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data entry, prescription processing, customer service </t>
+  </si>
+  <si>
+    <t>Role of Pharmacy Clerk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Service </t>
+  </si>
+  <si>
+    <t>licensed healthcare worker who assists the pharmacist in various tasks that must be completed under the supervision of a pharmacist. May not take any therapy recommendations, take transfer/phone or verify prescriptions</t>
+  </si>
+  <si>
+    <t>Define Pharmacy Technician</t>
+  </si>
+  <si>
+    <t>List of Tasks of Pharmacy Technician</t>
+  </si>
+  <si>
+    <t>Data entry, insurance billing, prescription processing, customer service, inventory management, compounding, scheduling, supervising, obtaining clinical values</t>
+  </si>
+  <si>
+    <t>Define Pharmacist</t>
+  </si>
+  <si>
+    <t>Professionaly qualified to prepare and dispense medicinal drugs, requires more education than pharmacy tech, legally perform tasks such as taking phone prescriptions, making therapy recommendations, verifying prescriptions</t>
+  </si>
+  <si>
+    <t>List of Tasks of Pharmacist</t>
+  </si>
+  <si>
+    <t>Verify prescriptions, counsel patients, make therapeutic recommendations, supervise pharmacy staff, analyze medication records, administer vaccines</t>
+  </si>
+  <si>
+    <t>A pharmacy technician can…</t>
+  </si>
+  <si>
+    <t>call insurance company on behalf of a patient, take verbal refills for a prescription so long as it does not change, obtain and enter all demographic and insurance info for a patient's prescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pharmacy technician cannot… </t>
+  </si>
+  <si>
+    <t>take a new phone prescription, verify prescriptions for dispensing, counsel patients or make any therapy recommendations</t>
+  </si>
+  <si>
+    <t>Qualities of a Pharmacy Technician</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stress management, efficient prioritization skills, strong communication skills, cultural competence, professionalism </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stress in Pharmacy </t>
+  </si>
+  <si>
+    <t>sources of stress include: high volume of prescriptions, phone calls, low levels of staff. Successful PharmTech able to delegate tasks based on importance in order to work efficiently / minimize stress</t>
+  </si>
+  <si>
+    <t>Stress Management</t>
+  </si>
+  <si>
+    <t>meditation, breathing techniques, self-reflection for self improvement</t>
   </si>
 </sst>
 </file>
@@ -425,15 +545,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC82DA2-11F8-424B-A6C2-4C6059BF490F}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.5" customWidth="1"/>
+    <col min="2" max="2" width="182.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -460,6 +581,166 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/posts/Introduction/flashcards.xlsx
+++ b/posts/Introduction/flashcards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlmarquez/Desktop/PharmTech/PharmTech/posts/Introduction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79581724-C263-3A4A-BADB-CC54176954DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA36C4B2-BED2-C04B-A5A5-2C18C638B15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{6A0228DA-1CE0-414F-8705-72378780F3F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Question</t>
   </si>
@@ -170,10 +170,46 @@
     <t>sources of stress include: high volume of prescriptions, phone calls, low levels of staff. Successful PharmTech able to delegate tasks based on importance in order to work efficiently / minimize stress</t>
   </si>
   <si>
-    <t>Stress Management</t>
-  </si>
-  <si>
     <t>meditation, breathing techniques, self-reflection for self improvement</t>
+  </si>
+  <si>
+    <t>Stress Management of Pharmacy Technician</t>
+  </si>
+  <si>
+    <t>Communication of Pharmacy Technician</t>
+  </si>
+  <si>
+    <t>good verbal (attitude and tone) and non-verbal (open body language, eye contact) communication skills to pharmacists, patients, other staff, other healthcare professionals (doctors, nurses) (inter-professional)</t>
+  </si>
+  <si>
+    <t>Cultural Competence of Pharmacy Technician</t>
+  </si>
+  <si>
+    <t>Cultural and linguistic competence is a set of congruent behaviors, attitudes, and policies that come together in a system, agency, or among professionals that enable effective work in cross-cultural situations</t>
+  </si>
+  <si>
+    <t>Cultural Competence of Pharmacy Technician (cont)</t>
+  </si>
+  <si>
+    <t>able to effectively work with those that are different from them, ability to effectively treat those that are of a differnet race, gender, religion is essential</t>
+  </si>
+  <si>
+    <t>Professionalism of Pharmacy Technician</t>
+  </si>
+  <si>
+    <t>conduct, aims, or qualities that mark a professional person. Combination of appearance (good hygiene, well-groomed/dressed), personality (integrity, trustworhtiness), and actions (timeliness, active listening)</t>
+  </si>
+  <si>
+    <t>How to get certified as a Pharmacy Technicain?</t>
+  </si>
+  <si>
+    <t>Pharmacy Technician Certification exam (PTCE), or Exam for the Certification of Pharmacy Technicians (ExCPT)</t>
+  </si>
+  <si>
+    <t>How to get a license as a Pharmacy Technician?</t>
+  </si>
+  <si>
+    <t>Need to register with your state in order to practice</t>
   </si>
 </sst>
 </file>
@@ -545,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC82DA2-11F8-424B-A6C2-4C6059BF490F}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,10 +771,58 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
-        <v>45</v>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
